--- a/Links.xlsx
+++ b/Links.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
   <si>
     <t>link</t>
   </si>
@@ -69,9 +69,6 @@
     <t>transporte</t>
   </si>
   <si>
-    <t>barrios_censo_2011.zip</t>
-  </si>
-  <si>
     <t>comunas_caba_censo_2010.zip</t>
   </si>
   <si>
@@ -223,6 +220,15 @@
   </si>
   <si>
     <t>http://data.buenosaires.gob.ar/dataset/subte-estaciones</t>
+  </si>
+  <si>
+    <t>barrios.zip</t>
+  </si>
+  <si>
+    <t>https://recursos-data.buenosaires.gob.ar/ckan2/barrios/barrios.zip</t>
+  </si>
+  <si>
+    <t>http://data.buenosaires.gob.ar/dataset/barrios</t>
   </si>
 </sst>
 </file>
@@ -660,8 +666,8 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -684,13 +690,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -698,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -707,10 +713,10 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -718,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -727,10 +733,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -744,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -752,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -761,10 +767,10 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -772,7 +778,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -781,10 +787,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -792,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -801,10 +807,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -812,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -821,10 +827,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -838,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -846,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -855,10 +861,10 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -866,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -875,113 +881,119 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -990,12 +1002,12 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1004,12 +1016,12 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1018,12 +1030,12 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1032,12 +1044,12 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1046,12 +1058,12 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -1060,12 +1072,12 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1074,12 +1086,12 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1088,12 +1100,12 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -1102,12 +1114,12 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1116,12 +1128,12 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1130,12 +1142,12 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1144,12 +1156,12 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1158,12 +1170,12 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1172,12 +1184,12 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1186,81 +1198,81 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>43</v>
-      </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>link</t>
   </si>
@@ -36,9 +36,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>estaciones-accesibles.zip</t>
-  </si>
-  <si>
     <t>estaciones-ferrocarril.zip</t>
   </si>
   <si>
@@ -72,48 +69,18 @@
     <t>comunas_caba_censo_2010.zip</t>
   </si>
   <si>
-    <t>ejes_de_calles_caba_censo_2010.zip</t>
-  </si>
-  <si>
     <t>fracciones_caba_censo_2010.zip</t>
   </si>
   <si>
     <t>manzanas_caba_censo_2010.zip</t>
   </si>
   <si>
-    <t>poligono_caba_censo_2010.zip</t>
-  </si>
-  <si>
     <t>radios_censo_2010.zip</t>
   </si>
   <si>
     <t>divisiones</t>
   </si>
   <si>
-    <t>arbolado-espacios-verdes.zip</t>
-  </si>
-  <si>
-    <t>censo-arbolado-2011.zip</t>
-  </si>
-  <si>
-    <t>centros-salud-no-dependientes-GCBA.zip</t>
-  </si>
-  <si>
-    <t>cesac.zip</t>
-  </si>
-  <si>
-    <t>comisarias-policia-federal.zip</t>
-  </si>
-  <si>
-    <t>comisarias-policia-metropolitana.zip</t>
-  </si>
-  <si>
-    <t>dependencias-culturales.zip</t>
-  </si>
-  <si>
-    <t>distritos-escolares.zip</t>
-  </si>
-  <si>
     <t>espacios-verdes-privados.zip</t>
   </si>
   <si>
@@ -129,54 +96,18 @@
     <t>hospitales.zip</t>
   </si>
   <si>
-    <t>polideportivos.zip</t>
-  </si>
-  <si>
     <t>rus-ciudad-2010-2011.zip</t>
   </si>
   <si>
     <t>parent_link</t>
   </si>
   <si>
-    <t>http://www.ptuma.gob.ar/publicaciones/</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
-    <t>http://www.ptuma.gob.ar/areas/amba/estudios/enmodo/publicacion_enmodo.zip</t>
-  </si>
-  <si>
     <t>documentacion</t>
   </si>
   <si>
-    <t>http://www.ptuma.gob.ar/areas/amba/estudios/enmodo/bases_enmodo.zip</t>
-  </si>
-  <si>
-    <t>bases_enmodo.zip</t>
-  </si>
-  <si>
-    <t>publicacion_enmodo.zip</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>http://ondat.fra.utn.edu.ar/?p=1044</t>
-  </si>
-  <si>
-    <t>http://ondat.fra.utn.edu.ar/wp-content/uploads/2013/08/INTRUPUBA-Todos-los-modos-Matrices-origen-destino-de-los-viajes-102013-copia.xls</t>
-  </si>
-  <si>
-    <t>INTRUPUBA-Todos-los-modos-Matrices-origen-destino-de-los-viajes-102013-copia.xls</t>
-  </si>
-  <si>
     <t>http://data.buenosaires.gob.ar/dataset/colectivos</t>
   </si>
   <si>
@@ -210,9 +141,6 @@
     <t>subcategory</t>
   </si>
   <si>
-    <t>https://recursos-data.buenosaires.gob.ar/ckan2/subterraneos/estaciones-accesibles.zip</t>
-  </si>
-  <si>
     <t>https://recursos-data.buenosaires.gob.ar/ckan2/subterraneos/subte-estaciones.zip</t>
   </si>
   <si>
@@ -229,6 +157,93 @@
   </si>
   <si>
     <t>http://data.buenosaires.gob.ar/dataset/barrios</t>
+  </si>
+  <si>
+    <t>https://recursos-data.buenosaires.gob.ar/ckan2/relevamiento-usos-suelo/uso-suelo-2011.csv</t>
+  </si>
+  <si>
+    <t>uso-suelo-2011.csv</t>
+  </si>
+  <si>
+    <t>https://recursos-data.buenosaires.gob.ar/ckan2/parcelas/parcelas-100112-wgs84.csv</t>
+  </si>
+  <si>
+    <t>http://data.buenosaires.gob.ar/dataset/parcelas</t>
+  </si>
+  <si>
+    <t>parcelas-100112-wgs84.csv</t>
+  </si>
+  <si>
+    <t>http://data.buenosaires.gob.ar/dataset/relevamiento-usos-suelo</t>
+  </si>
+  <si>
+    <t>https://recursos-data.buenosaires.gob.ar/ckan2/relevamiento-usos-suelo/rus-ciudad-2010-2011.zip</t>
+  </si>
+  <si>
+    <t>http://data.buenosaires.gob.ar/dataset/hospitales</t>
+  </si>
+  <si>
+    <t>https://recursos-data.buenosaires.gob.ar/ckan2/hospitales/hospitales.zip</t>
+  </si>
+  <si>
+    <t>http://data.buenosaires.gob.ar/dataset/establecimientos-educativos</t>
+  </si>
+  <si>
+    <t>https://recursos-data.buenosaires.gob.ar/ckan2/establecimientos-educativos/establecimientos-educativos-privados.zip</t>
+  </si>
+  <si>
+    <t>https://recursos-data.buenosaires.gob.ar/ckan2/establecimientos-educativos/establecimientos-educativos-publicos.zip</t>
+  </si>
+  <si>
+    <t>https://recursos-data.buenosaires.gob.ar/ckan2/espacios-verdes/espacios-verdes-privados.zip</t>
+  </si>
+  <si>
+    <t>https://recursos-data.buenosaires.gob.ar/ckan2/espacios-verdes/espacios-verdes-publicos.zip</t>
+  </si>
+  <si>
+    <t>http://www.estadisticaciudad.gob.ar/eyc/wp-content/uploads/2015/04/radios_caba_censo_2010.rar</t>
+  </si>
+  <si>
+    <t>http://www.estadisticaciudad.gob.ar/eyc/?p=40970</t>
+  </si>
+  <si>
+    <t>http://data.buenosaires.gob.ar/dataset/espacios-verdes</t>
+  </si>
+  <si>
+    <t>http://www.estadisticaciudad.gob.ar/eyc/?p=40960</t>
+  </si>
+  <si>
+    <t>http://www.estadisticaciudad.gob.ar/eyc/wp-content/uploads/2015/04/poligono_caba_censo_2010.rar</t>
+  </si>
+  <si>
+    <t>http://www.estadisticaciudad.gob.ar/eyc/?p=40974</t>
+  </si>
+  <si>
+    <t>http://www.estadisticaciudad.gob.ar/eyc/wp-content/uploads/2015/04/fracciones_caba_censo_2010.rar</t>
+  </si>
+  <si>
+    <t>http://www.estadisticaciudad.gob.ar/eyc/?p=2106</t>
+  </si>
+  <si>
+    <t>http://www.estadisticaciudad.gob.ar/eyc/wp-content/uploads/2014/12/comunas_caba_censo_2010.rar</t>
+  </si>
+  <si>
+    <t>http://www.estadisticaciudad.gob.ar/eyc/?p=36089</t>
+  </si>
+  <si>
+    <t>http://www.estadisticaciudad.gob.ar/eyc/wp-content/uploads/2015/03/barrios_caba_censo_2010.rar</t>
+  </si>
+  <si>
+    <t>barrios_caba_censo_2010.rar</t>
+  </si>
+  <si>
+    <t>http://data.buenosaires.gob.ar/dataset/premetro</t>
+  </si>
+  <si>
+    <t>https://recursos-data.buenosaires.gob.ar/ckan2/premetro/recorrido-premetro.csv</t>
+  </si>
+  <si>
+    <t>https://recursos-data.buenosaires.gob.ar/ckan2/premetro/estaciones-premetro.zip</t>
   </si>
 </sst>
 </file>
@@ -285,7 +300,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -304,6 +319,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,7 +337,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="17"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="30">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -334,6 +358,15 @@
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,23 +696,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
     <col min="2" max="2" width="11.21875" customWidth="1"/>
     <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -690,310 +722,307 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>63</v>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>53</v>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>23</v>
+      <c r="B19" t="s">
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1001,13 +1030,16 @@
       <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1015,13 +1047,16 @@
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1029,13 +1064,16 @@
       <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1043,242 +1081,84 @@
       <c r="D22" t="s">
         <v>2</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="E24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1"/>
-    <hyperlink ref="B37" r:id="rId2"/>
+    <hyperlink ref="B23" r:id="rId1"/>
+    <hyperlink ref="B24" r:id="rId2"/>
+    <hyperlink ref="B25" r:id="rId3"/>
+    <hyperlink ref="E25" r:id="rId4"/>
+    <hyperlink ref="E24" r:id="rId5"/>
+    <hyperlink ref="B22" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="E21" r:id="rId8"/>
+    <hyperlink ref="B21" r:id="rId9"/>
+    <hyperlink ref="B17" r:id="rId10"/>
+    <hyperlink ref="B18" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="E17" r:id="rId13"/>
+    <hyperlink ref="E18" r:id="rId14"/>
+    <hyperlink ref="E15" r:id="rId15"/>
+    <hyperlink ref="B15" r:id="rId16"/>
+    <hyperlink ref="E14" r:id="rId17"/>
+    <hyperlink ref="B14" r:id="rId18"/>
+    <hyperlink ref="E12" r:id="rId19"/>
+    <hyperlink ref="B12" r:id="rId20"/>
+    <hyperlink ref="E13" r:id="rId21"/>
+    <hyperlink ref="B13" r:id="rId22"/>
+    <hyperlink ref="E3" r:id="rId23"/>
+    <hyperlink ref="E8" r:id="rId24"/>
+    <hyperlink ref="B8" r:id="rId25"/>
+    <hyperlink ref="B3" r:id="rId26"/>
+    <hyperlink ref="B2" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17460" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>link</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>documentacion</t>
   </si>
   <si>
     <t>http://data.buenosaires.gob.ar/dataset/colectivos</t>
@@ -700,7 +697,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -722,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -733,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -742,7 +739,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -750,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -759,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -767,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -776,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -784,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -793,7 +790,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -801,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -810,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -818,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -827,7 +824,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -835,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -844,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -852,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -861,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -869,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -878,15 +875,15 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -895,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -903,7 +900,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -912,15 +909,15 @@
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -929,7 +926,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -937,7 +934,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -946,7 +943,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -954,7 +951,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -963,7 +960,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -971,7 +968,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -980,7 +977,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -988,7 +985,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -997,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1005,7 +1002,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1014,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1022,7 +1019,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1031,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1039,7 +1036,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1048,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1056,7 +1053,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1065,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1073,7 +1070,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1082,52 +1079,49 @@
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
